--- a/folder_in/provaS11.xlsx
+++ b/folder_in/provaS11.xlsx
@@ -1,16 +1,16 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="25518"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="25225"/>
   <workbookPr defaultThemeVersion="166925"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\47165802R\Downloads\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\Github\personal\Project-TE2T\folder_in\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="11_6F366A4243B72CFBA9F7FE00AD38AE3EFA447CFA" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{4A09501C-DB58-46A4-9779-EE6D30A5DBB2}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="0" yWindow="0" windowWidth="28800" windowHeight="12300" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="28667" yWindow="-2573" windowWidth="19200" windowHeight="10026" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Hoja1" sheetId="1" r:id="rId1"/>
@@ -36,7 +36,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="8" uniqueCount="8">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="17" uniqueCount="17">
   <si>
     <r>
       <rPr>
@@ -101,12 +101,39 @@
   <si>
     <t>γ-1n</t>
   </si>
+  <si>
+    <t>Columna</t>
+  </si>
+  <si>
+    <t>Fila 1</t>
+  </si>
+  <si>
+    <t>Fila 2</t>
+  </si>
+  <si>
+    <t>Fila 3</t>
+  </si>
+  <si>
+    <t>Fila 4</t>
+  </si>
+  <si>
+    <t>Fila 5</t>
+  </si>
+  <si>
+    <t>Fila 6</t>
+  </si>
+  <si>
+    <t>Fila 7</t>
+  </si>
+  <si>
+    <t>Fila 8</t>
+  </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
-  <fonts count="3">
+  <fonts count="3" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
       <color theme="1"/>
@@ -171,7 +198,7 @@
 </file>
 
 <file path=xl/theme/theme1.xml><?xml version="1.0" encoding="utf-8"?>
-<a:theme xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" name="Office Theme">
+<a:theme xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" name="Tema de Office">
   <a:themeElements>
     <a:clrScheme name="Office">
       <a:dk1>
@@ -467,51 +494,83 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
-  <dimension ref="A1:A8"/>
+  <dimension ref="A1:B9"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="D4" sqref="D4"/>
+      <selection activeCell="B2" sqref="B2"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="11.42578125" defaultRowHeight="15"/>
+  <sheetFormatPr baseColWidth="10" defaultColWidth="11.44140625" defaultRowHeight="15.35" x14ac:dyDescent="0.3"/>
+  <cols>
+    <col min="1" max="1" width="10" customWidth="1"/>
+  </cols>
   <sheetData>
-    <row r="1" spans="1:1" ht="17.25">
-      <c r="A1" t="s">
+    <row r="1" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="B1" t="s">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="2" spans="1:2" ht="16.7" x14ac:dyDescent="0.3">
+      <c r="A2" t="s">
+        <v>9</v>
+      </c>
+      <c r="B2" t="s">
         <v>0</v>
       </c>
     </row>
-    <row r="2" spans="1:1">
-      <c r="A2" t="s">
+    <row r="3" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A3" t="s">
+        <v>10</v>
+      </c>
+      <c r="B3" t="s">
         <v>1</v>
       </c>
     </row>
-    <row r="3" spans="1:1">
-      <c r="A3" t="s">
+    <row r="4" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A4" t="s">
+        <v>11</v>
+      </c>
+      <c r="B4" t="s">
         <v>2</v>
       </c>
     </row>
-    <row r="4" spans="1:1" ht="18">
-      <c r="A4" t="s">
+    <row r="5" spans="1:2" ht="16.7" x14ac:dyDescent="0.35">
+      <c r="A5" t="s">
+        <v>12</v>
+      </c>
+      <c r="B5" t="s">
         <v>3</v>
       </c>
     </row>
-    <row r="5" spans="1:1">
-      <c r="A5" t="s">
+    <row r="6" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A6" t="s">
+        <v>13</v>
+      </c>
+      <c r="B6" t="s">
         <v>4</v>
       </c>
     </row>
-    <row r="6" spans="1:1">
-      <c r="A6" t="s">
+    <row r="7" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A7" t="s">
+        <v>14</v>
+      </c>
+      <c r="B7" t="s">
         <v>5</v>
       </c>
     </row>
-    <row r="7" spans="1:1">
-      <c r="A7" t="s">
+    <row r="8" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A8" t="s">
+        <v>15</v>
+      </c>
+      <c r="B8" t="s">
         <v>6</v>
       </c>
     </row>
-    <row r="8" spans="1:1">
-      <c r="A8" t="s">
+    <row r="9" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A9" t="s">
+        <v>16</v>
+      </c>
+      <c r="B9" t="s">
         <v>7</v>
       </c>
     </row>

--- a/folder_in/provaS11.xlsx
+++ b/folder_in/provaS11.xlsx
@@ -1,16 +1,16 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="25225"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="25330"/>
   <workbookPr defaultThemeVersion="166925"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\Github\personal\Project-TE2T\folder_in\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{4A09501C-DB58-46A4-9779-EE6D30A5DBB2}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{065291FF-F861-475F-8C91-F664E951E31B}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="28667" yWindow="-2573" windowWidth="19200" windowHeight="10026" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="3013" yWindow="0" windowWidth="19200" windowHeight="10027" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Hoja1" sheetId="1" r:id="rId1"/>
@@ -36,7 +36,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="17" uniqueCount="17">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="21" uniqueCount="21">
   <si>
     <r>
       <rPr>
@@ -128,12 +128,46 @@
   <si>
     <t>Fila 8</t>
   </si>
+  <si>
+    <t>Fila super</t>
+  </si>
+  <si>
+    <t>Fila sub</t>
+  </si>
+  <si>
+    <r>
+      <t>I</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+      </rPr>
+      <t>⁴³²</t>
+    </r>
+  </si>
+  <si>
+    <r>
+      <t>ABc</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+      </rPr>
+      <t>₁₂₄</t>
+    </r>
+  </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
-  <fonts count="3" x14ac:knownFonts="1">
+  <fonts count="4" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
       <color theme="1"/>
@@ -156,6 +190,12 @@
       <name val="Calibri"/>
       <family val="2"/>
       <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color theme="1"/>
+      <name val="Calibri"/>
+      <family val="2"/>
     </font>
   </fonts>
   <fills count="2">
@@ -494,10 +534,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
-  <dimension ref="A1:B9"/>
+  <dimension ref="A1:B12"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="B2" sqref="B2"/>
+      <selection activeCell="F11" sqref="F11"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultColWidth="11.44140625" defaultRowHeight="15.35" x14ac:dyDescent="0.3"/>
@@ -574,7 +614,24 @@
         <v>7</v>
       </c>
     </row>
+    <row r="11" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A11" t="s">
+        <v>17</v>
+      </c>
+      <c r="B11" t="s">
+        <v>19</v>
+      </c>
+    </row>
+    <row r="12" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A12" t="s">
+        <v>18</v>
+      </c>
+      <c r="B12" t="s">
+        <v>20</v>
+      </c>
+    </row>
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+  <pageSetup orientation="portrait" r:id="rId1"/>
 </worksheet>
 </file>